--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="278">
   <si>
     <t>날짜</t>
   </si>
@@ -443,10 +443,6 @@
     <t>aespa</t>
   </si>
   <si>
-    <t>The Kid LAROI
-The Kid LAROI</t>
-  </si>
-  <si>
     <t>김세정</t>
   </si>
   <si>
@@ -528,8 +524,7 @@
     <t>이하이</t>
   </si>
   <si>
-    <t>88rising
-88rising</t>
+    <t>88rising</t>
   </si>
   <si>
     <t>성시경</t>
@@ -1257,10 +1252,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1277,13 +1272,13 @@
         <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1303,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1323,13 +1318,13 @@
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1349,10 +1344,10 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1369,13 +1364,13 @@
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1395,10 +1390,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1415,13 +1410,13 @@
         <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1441,10 +1436,10 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1461,13 +1456,13 @@
         <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1487,10 +1482,10 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1510,10 +1505,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1533,10 +1528,10 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1553,13 +1548,13 @@
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1576,13 +1571,13 @@
         <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1599,13 +1594,13 @@
         <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1622,13 +1617,13 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1645,13 +1640,13 @@
         <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1671,10 +1666,10 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1694,10 +1689,10 @@
         <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1717,10 +1712,10 @@
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1740,10 +1735,10 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1760,13 +1755,13 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1786,10 +1781,10 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1806,13 +1801,13 @@
         <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1829,13 +1824,13 @@
         <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1855,10 +1850,10 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1878,10 +1873,10 @@
         <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1898,13 +1893,13 @@
         <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1921,13 +1916,13 @@
         <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1947,10 +1942,10 @@
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1970,10 +1965,10 @@
         <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1990,13 +1985,13 @@
         <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2013,13 +2008,13 @@
         <v>138</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2036,13 +2031,13 @@
         <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2059,13 +2054,13 @@
         <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2082,13 +2077,13 @@
         <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2108,10 +2103,10 @@
         <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2125,11 +2120,17 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
         <v>46</v>
       </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
@@ -2145,13 +2146,13 @@
         <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2171,10 +2172,10 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2188,16 +2189,16 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2217,10 +2218,10 @@
         <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2234,16 +2235,16 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
         <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2257,16 +2258,16 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2280,16 +2281,16 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2303,16 +2304,16 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
         <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2332,10 +2333,10 @@
         <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2355,10 +2356,10 @@
         <v>56</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2372,16 +2373,16 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2395,16 +2396,16 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" t="s">
         <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2418,16 +2419,16 @@
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2441,16 +2442,16 @@
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2464,16 +2465,16 @@
         <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2487,16 +2488,16 @@
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
         <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2510,16 +2511,16 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2539,10 +2540,10 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2556,16 +2557,16 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
         <v>65</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2579,16 +2580,16 @@
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2605,13 +2606,13 @@
         <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2628,13 +2629,13 @@
         <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2648,16 +2649,16 @@
         <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2671,16 +2672,16 @@
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2694,16 +2695,16 @@
         <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
         <v>71</v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2717,16 +2718,16 @@
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2743,13 +2744,13 @@
         <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2766,13 +2767,13 @@
         <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2786,16 +2787,16 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2809,16 +2810,16 @@
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2835,13 +2836,13 @@
         <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2855,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
         <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2884,10 +2885,10 @@
         <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2901,16 +2902,16 @@
         <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
         <v>80</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2924,16 +2925,16 @@
         <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
         <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2947,16 +2948,16 @@
         <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2973,13 +2974,13 @@
         <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2996,13 +2997,13 @@
         <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3022,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3042,13 +3043,13 @@
         <v>118</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3062,16 +3063,16 @@
         <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3085,16 +3086,16 @@
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
         <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3108,16 +3109,16 @@
         <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3131,16 +3132,16 @@
         <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3154,16 +3155,16 @@
         <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3177,16 +3178,16 @@
         <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3200,7 +3201,7 @@
         <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
         <v>93</v>
@@ -3217,16 +3218,16 @@
         <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3240,16 +3241,16 @@
         <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E89" t="s">
         <v>95</v>
       </c>
       <c r="F89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3263,16 +3264,16 @@
         <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3289,13 +3290,13 @@
         <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3309,16 +3310,16 @@
         <v>98</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
         <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3332,16 +3333,16 @@
         <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F93" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3355,16 +3356,16 @@
         <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
         <v>100</v>
       </c>
       <c r="F94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3381,13 +3382,13 @@
         <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3401,16 +3402,16 @@
         <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E96" t="s">
         <v>102</v>
       </c>
       <c r="F96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3427,13 +3428,13 @@
         <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3447,16 +3448,16 @@
         <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3470,16 +3471,16 @@
         <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E99" t="s">
         <v>105</v>
       </c>
       <c r="F99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3493,16 +3494,16 @@
         <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3519,13 +3520,13 @@
         <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-04-25</t>
@@ -3263,7 +3263,6 @@
         <v>138</v>
       </c>
       <c r="F79">
-        <f/>
         <v>0</v>
       </c>
       <c r="G79" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="280">
   <si>
     <t>사이트</t>
   </si>
@@ -3473,6 +3473,12 @@
       <c r="F87" t="s">
         <v>95</v>
       </c>
+      <c r="G87" t="s">
+        <v>243</v>
+      </c>
+      <c r="H87" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220425_110806.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="279">
   <si>
     <t>사이트</t>
   </si>
@@ -749,7 +749,7 @@
     <t>해외</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>물고기뮤직</t>
@@ -852,9 +852,6 @@
   </si>
   <si>
     <t>MA</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1290,7 @@
         <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1319,7 +1316,7 @@
         <v>234</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1345,7 +1342,7 @@
         <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1423,7 +1420,7 @@
         <v>238</v>
       </c>
       <c r="H8" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1449,7 +1446,7 @@
         <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1475,7 +1472,7 @@
         <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1501,7 +1498,7 @@
         <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1553,7 +1550,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1579,7 +1576,7 @@
         <v>243</v>
       </c>
       <c r="H14" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1631,7 +1628,7 @@
         <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1657,7 +1654,7 @@
         <v>244</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1683,7 +1680,7 @@
         <v>240</v>
       </c>
       <c r="H18" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1709,7 +1706,7 @@
         <v>245</v>
       </c>
       <c r="H19" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1735,7 +1732,7 @@
         <v>243</v>
       </c>
       <c r="H20" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1761,7 +1758,7 @@
         <v>246</v>
       </c>
       <c r="H21" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1787,7 +1784,7 @@
         <v>239</v>
       </c>
       <c r="H22" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1839,7 +1836,7 @@
         <v>244</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1865,7 +1862,7 @@
         <v>247</v>
       </c>
       <c r="H25" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1891,7 +1888,7 @@
         <v>248</v>
       </c>
       <c r="H26" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1917,7 +1914,7 @@
         <v>249</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1943,7 +1940,7 @@
         <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1969,7 +1966,7 @@
         <v>243</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1995,7 +1992,7 @@
         <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2021,7 +2018,7 @@
         <v>252</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2047,7 +2044,7 @@
         <v>243</v>
       </c>
       <c r="H32" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2073,7 +2070,7 @@
         <v>243</v>
       </c>
       <c r="H33" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2099,7 +2096,7 @@
         <v>253</v>
       </c>
       <c r="H34" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2151,7 +2148,7 @@
         <v>245</v>
       </c>
       <c r="H36" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2177,7 +2174,7 @@
         <v>254</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2203,7 +2200,7 @@
         <v>255</v>
       </c>
       <c r="H38" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2255,7 +2252,7 @@
         <v>243</v>
       </c>
       <c r="H40" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2307,7 +2304,7 @@
         <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2333,7 +2330,7 @@
         <v>256</v>
       </c>
       <c r="H43" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2359,7 +2356,7 @@
         <v>255</v>
       </c>
       <c r="H44" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2385,7 +2382,7 @@
         <v>240</v>
       </c>
       <c r="H45" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2411,7 +2408,7 @@
         <v>257</v>
       </c>
       <c r="H46" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2567,7 +2564,7 @@
         <v>259</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2671,7 +2668,7 @@
         <v>261</v>
       </c>
       <c r="H56" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2723,7 +2720,7 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2749,7 +2746,7 @@
         <v>262</v>
       </c>
       <c r="H59" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2775,7 +2772,7 @@
         <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2801,7 +2798,7 @@
         <v>255</v>
       </c>
       <c r="H61" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2827,7 +2824,7 @@
         <v>255</v>
       </c>
       <c r="H62" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2853,7 +2850,7 @@
         <v>243</v>
       </c>
       <c r="H63" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2879,7 +2876,7 @@
         <v>263</v>
       </c>
       <c r="H64" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2905,7 +2902,7 @@
         <v>243</v>
       </c>
       <c r="H65" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2931,7 +2928,7 @@
         <v>264</v>
       </c>
       <c r="H66" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2983,7 +2980,7 @@
         <v>233</v>
       </c>
       <c r="H68" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3009,7 +3006,7 @@
         <v>265</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3035,7 +3032,7 @@
         <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3087,7 +3084,7 @@
         <v>266</v>
       </c>
       <c r="H72" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3139,7 +3136,7 @@
         <v>267</v>
       </c>
       <c r="H74" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3165,7 +3162,7 @@
         <v>268</v>
       </c>
       <c r="H75" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3191,7 +3188,7 @@
         <v>269</v>
       </c>
       <c r="H76" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3217,7 +3214,7 @@
         <v>255</v>
       </c>
       <c r="H77" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3243,7 +3240,7 @@
         <v>255</v>
       </c>
       <c r="H78" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3269,7 +3266,7 @@
         <v>243</v>
       </c>
       <c r="H79" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3321,7 +3318,7 @@
         <v>270</v>
       </c>
       <c r="H81" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3347,7 +3344,7 @@
         <v>271</v>
       </c>
       <c r="H82" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3373,7 +3370,7 @@
         <v>272</v>
       </c>
       <c r="H83" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3399,7 +3396,7 @@
         <v>259</v>
       </c>
       <c r="H84" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3425,7 +3422,7 @@
         <v>273</v>
       </c>
       <c r="H85" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3451,7 +3448,7 @@
         <v>274</v>
       </c>
       <c r="H86" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3477,7 +3474,7 @@
         <v>243</v>
       </c>
       <c r="H87" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3503,7 +3500,7 @@
         <v>275</v>
       </c>
       <c r="H88" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3529,7 +3526,7 @@
         <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3633,7 +3630,7 @@
         <v>276</v>
       </c>
       <c r="H93" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3659,7 +3656,7 @@
         <v>243</v>
       </c>
       <c r="H94" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3685,7 +3682,7 @@
         <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3763,7 +3760,7 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3815,7 +3812,7 @@
         <v>278</v>
       </c>
       <c r="H100" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3841,7 +3838,7 @@
         <v>233</v>
       </c>
       <c r="H101" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
